--- a/odm_quote_forecast/anchored_results/NPI Pegatron Forecasts.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI Pegatron Forecasts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecasts for PEGATRON" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Forecasts for PEGATRON" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Program</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ODM</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Program</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,12 +492,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FAIRVIEW</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -532,12 +532,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FAIRVIEW</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -572,12 +572,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FAIRVIEW</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -612,12 +612,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -646,12 +646,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -680,12 +680,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -714,12 +714,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -749,21 +749,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SBFPF2BV076TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>45.35</v>
+        <v>45.39</v>
       </c>
       <c r="F9" t="n">
         <v>202241</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>45.35000000000001</v>
+        <v>45.39</v>
       </c>
       <c r="J9" t="n">
-        <v>2358.2</v>
+        <v>1815.6</v>
       </c>
     </row>
     <row r="10">
@@ -789,21 +789,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SBFPF2BV153TES1</t>
+          <t>SBFPF2BV076TES1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>45.41</v>
+        <v>45.35</v>
       </c>
       <c r="F10" t="n">
         <v>202241</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>45.41</v>
+        <v>45.35000000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>7810.52</v>
+        <v>2358.2</v>
       </c>
     </row>
     <row r="11">
@@ -829,21 +829,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SBFPF2BV307TES1</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>120.88</v>
+        <v>45.41</v>
       </c>
       <c r="F11" t="n">
         <v>202241</v>
@@ -857,10 +857,10 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>120.88</v>
+        <v>45.41</v>
       </c>
       <c r="J11" t="n">
-        <v>12692.4</v>
+        <v>7810.52</v>
       </c>
     </row>
     <row r="12">
@@ -869,20 +869,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SBFPFABU038TES1</t>
+          <t>SBFPF2BV307TES1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>120.88</v>
+      </c>
       <c r="F12" t="n">
         <v>202241</v>
       </c>
@@ -894,8 +896,12 @@
           <t>ACTIVE, WIP, DONE</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>120.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12692.4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -903,22 +909,20 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SBFPFABU076TES1</t>
+          <t>SBFPFABU038TES1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>53.78</v>
-      </c>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>202241</v>
       </c>
@@ -930,12 +934,8 @@
           <t>ACTIVE, WIP, DONE</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>53.78</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1290.72</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -943,21 +943,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SBFPFABU153TES1</t>
+          <t>SBFPFABU076TES1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>53.02</v>
+        <v>53.78</v>
       </c>
       <c r="F14" t="n">
         <v>202241</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>53.02</v>
+        <v>53.78</v>
       </c>
       <c r="J14" t="n">
-        <v>1060.4</v>
+        <v>1290.72</v>
       </c>
     </row>
     <row r="15">
@@ -983,21 +983,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SBFPFABV076TES1</t>
+          <t>SBFPFABU153TES1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>52.96</v>
+        <v>53.02</v>
       </c>
       <c r="F15" t="n">
         <v>202241</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>52.96</v>
+        <v>53.02</v>
       </c>
       <c r="J15" t="n">
-        <v>5084.16</v>
+        <v>1060.4</v>
       </c>
     </row>
     <row r="16">
@@ -1023,21 +1023,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SBFPFABV153TES1</t>
+          <t>SBFPFABV076TES1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>53.02</v>
+        <v>52.96</v>
       </c>
       <c r="F16" t="n">
         <v>202241</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>53.02</v>
+        <v>52.96</v>
       </c>
       <c r="J16" t="n">
-        <v>2438.92</v>
+        <v>5084.16</v>
       </c>
     </row>
     <row r="17">
@@ -1063,21 +1063,21 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SBFPFWBV153TES1</t>
+          <t>SBFPFABV153TES1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>121.16</v>
+        <v>53.02</v>
       </c>
       <c r="F17" t="n">
         <v>202241</v>
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>121.16</v>
+        <v>53.02</v>
       </c>
       <c r="J17" t="n">
-        <v>13085.28</v>
+        <v>2438.92</v>
       </c>
     </row>
     <row r="18">
@@ -1103,21 +1103,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SBFPFWBV307TES1</t>
+          <t>SBFPFWBV153TES1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120.72</v>
+        <v>121.16</v>
       </c>
       <c r="F18" t="n">
         <v>202241</v>
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>120.72</v>
+        <v>121.16</v>
       </c>
       <c r="J18" t="n">
-        <v>12554.88</v>
+        <v>13085.28</v>
       </c>
     </row>
     <row r="19">
@@ -1143,21 +1143,21 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SSDPF2KX012TZES</t>
+          <t>SBFPFWBV307TES1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPRRR VE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.7</v>
+        <v>120.72</v>
       </c>
       <c r="F19" t="n">
         <v>202241</v>
@@ -1171,10 +1171,10 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>37.7</v>
+        <v>120.72</v>
       </c>
       <c r="J19" t="n">
-        <v>2865.2</v>
+        <v>12554.88</v>
       </c>
     </row>
     <row r="20">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SSDPF2KX038TZES</t>
+          <t>SSDPF2KX012TZES</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPR SE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1214,7 +1214,7 @@
         <v>37.7</v>
       </c>
       <c r="J20" t="n">
-        <v>6032</v>
+        <v>2865.2</v>
       </c>
     </row>
     <row r="21">
@@ -1223,17 +1223,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SSDPF2KX076TZES</t>
+          <t>SSDPF2KX038TZES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPR SE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1254,7 +1254,7 @@
         <v>37.7</v>
       </c>
       <c r="J21" t="n">
-        <v>452.4</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="22">
@@ -1263,21 +1263,21 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SSDPFINU512GZ1S</t>
+          <t>SSDPF2KX076TZES</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>ADPR SE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>EH</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.79</v>
+        <v>37.7</v>
       </c>
       <c r="F22" t="n">
         <v>202241</v>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>5.79</v>
+        <v>37.7</v>
       </c>
       <c r="J22" t="n">
-        <v>277.92</v>
+        <v>452.4</v>
       </c>
     </row>
     <row r="23">
@@ -1303,17 +1303,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SSDPFKNU010TZ1S</t>
+          <t>SSDPFINU512GZ1S</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>EH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>EH</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1334,7 +1334,7 @@
         <v>5.79</v>
       </c>
       <c r="J23" t="n">
-        <v>555.84</v>
+        <v>277.92</v>
       </c>
     </row>
     <row r="24">
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SSDPFKNU512GZ1S</t>
+          <t>SSDPFKNU010TZ1S</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PEGATRON</t>
+          <t>EH</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>EH</t>
+          <t>PEGATRON</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1374,6 +1374,46 @@
         <v>5.79</v>
       </c>
       <c r="J24" t="n">
+        <v>555.84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SSDPFKNU512GZ1S</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>EH</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="F25" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G25" t="n">
+        <v>202253</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="J25" t="n">
         <v>648.48</v>
       </c>
     </row>

--- a/odm_quote_forecast/anchored_results/NPI Pegatron Forecasts.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI Pegatron Forecasts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Program Acronym</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Forecast for: BOM+MVA Cost (mean)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>WW Start</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>WW End</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Build Status Used</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Forecast for: BOM+MVA Cost (weighted mean)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Forecast for: Subtotal = NRE+
 Qty*(BOM+MVA) (mean)</t>
@@ -492,32 +497,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>FAIRVIEW HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FAIRVIEW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>5.642222222222221</v>
       </c>
-      <c r="F2" t="n">
-        <v>202241</v>
-      </c>
       <c r="G2" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H2" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>5.119069767441861</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>195.6622222222222</v>
       </c>
     </row>
@@ -532,32 +542,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>FAIRVIEW HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FAIRVIEW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>5.653999999999999</v>
       </c>
-      <c r="F3" t="n">
-        <v>202241</v>
-      </c>
       <c r="G3" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H3" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>5.738799999999999</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>229.552</v>
       </c>
     </row>
@@ -572,32 +587,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>FAIRVIEW HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FAIRVIEW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>5.642222222222221</v>
       </c>
-      <c r="F4" t="n">
-        <v>202241</v>
-      </c>
       <c r="G4" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H4" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>5.270769230769229</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>304.5333333333332</v>
       </c>
     </row>
@@ -612,28 +632,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H5" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -646,28 +671,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H6" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -680,28 +710,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H7" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -714,32 +749,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>45.39</v>
       </c>
-      <c r="F8" t="n">
-        <v>202241</v>
-      </c>
       <c r="G8" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H8" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>45.39</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>6354.6</v>
       </c>
     </row>
@@ -754,32 +794,37 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>45.39</v>
       </c>
-      <c r="F9" t="n">
-        <v>202241</v>
-      </c>
       <c r="G9" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H9" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>45.39</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>1815.6</v>
       </c>
     </row>
@@ -794,32 +839,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>45.35</v>
       </c>
-      <c r="F10" t="n">
-        <v>202241</v>
-      </c>
       <c r="G10" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H10" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>45.35000000000001</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>2358.2</v>
       </c>
     </row>
@@ -834,32 +884,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>45.41</v>
       </c>
-      <c r="F11" t="n">
-        <v>202241</v>
-      </c>
       <c r="G11" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H11" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>45.41</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>7810.52</v>
       </c>
     </row>
@@ -874,32 +929,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>120.88</v>
       </c>
-      <c r="F12" t="n">
-        <v>202241</v>
-      </c>
       <c r="G12" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H12" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>120.88</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>12692.4</v>
       </c>
     </row>
@@ -914,28 +974,33 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>202241</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>202241</v>
+      </c>
+      <c r="H13" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -948,32 +1013,37 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>53.78</v>
       </c>
-      <c r="F14" t="n">
-        <v>202241</v>
-      </c>
       <c r="G14" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H14" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>53.78</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>1290.72</v>
       </c>
     </row>
@@ -988,32 +1058,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>ADPRRR EE</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>53.02</v>
       </c>
-      <c r="F15" t="n">
-        <v>202241</v>
-      </c>
       <c r="G15" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H15" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>53.02</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>1060.4</v>
       </c>
     </row>
@@ -1028,32 +1103,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>52.96</v>
       </c>
-      <c r="F16" t="n">
-        <v>202241</v>
-      </c>
       <c r="G16" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H16" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>52.96</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>5084.16</v>
       </c>
     </row>
@@ -1068,32 +1148,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>53.02</v>
       </c>
-      <c r="F17" t="n">
-        <v>202241</v>
-      </c>
       <c r="G17" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H17" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>53.02</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>2438.92</v>
       </c>
     </row>
@@ -1108,32 +1193,37 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>121.16</v>
       </c>
-      <c r="F18" t="n">
-        <v>202241</v>
-      </c>
       <c r="G18" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H18" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>121.16</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>13085.28</v>
       </c>
     </row>
@@ -1148,32 +1238,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>ADPRRR VE</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>120.72</v>
       </c>
-      <c r="F19" t="n">
-        <v>202241</v>
-      </c>
       <c r="G19" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H19" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>120.72</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>12554.88</v>
       </c>
     </row>
@@ -1188,32 +1283,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>ADPR SE</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>37.7</v>
       </c>
-      <c r="F20" t="n">
-        <v>202241</v>
-      </c>
       <c r="G20" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H20" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>37.7</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>2865.2</v>
       </c>
     </row>
@@ -1228,32 +1328,37 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>ADPR SE</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>37.7</v>
       </c>
-      <c r="F21" t="n">
-        <v>202241</v>
-      </c>
       <c r="G21" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H21" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>37.7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>6032</v>
       </c>
     </row>
@@ -1268,32 +1373,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>ADPR SE</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>37.7</v>
       </c>
-      <c r="F22" t="n">
-        <v>202241</v>
-      </c>
       <c r="G22" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H22" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
         <v>37.7</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>452.4</v>
       </c>
     </row>
@@ -1308,32 +1418,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>EH</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>5.79</v>
       </c>
-      <c r="F23" t="n">
-        <v>202241</v>
-      </c>
       <c r="G23" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H23" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
         <v>5.79</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>277.92</v>
       </c>
     </row>
@@ -1348,32 +1463,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>EH</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>5.79</v>
       </c>
-      <c r="F24" t="n">
-        <v>202241</v>
-      </c>
       <c r="G24" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H24" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
         <v>5.79</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>555.84</v>
       </c>
     </row>
@@ -1388,32 +1508,37 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>EH</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>5.79</v>
       </c>
-      <c r="F25" t="n">
-        <v>202241</v>
-      </c>
       <c r="G25" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+        <v>202241</v>
+      </c>
+      <c r="H25" t="n">
+        <v>202253</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
         <v>5.79</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>648.48</v>
       </c>
     </row>

--- a/odm_quote_forecast/anchored_results/NPI Pegatron Forecasts.xlsx
+++ b/odm_quote_forecast/anchored_results/NPI Pegatron Forecasts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         <v>202241</v>
       </c>
       <c r="G2" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SBDPFKBP020T</t>
+          <t>SBDPFKBP010TES1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5.653999999999999</v>
+        <v>6.119999999999999</v>
       </c>
       <c r="F3" t="n">
         <v>202241</v>
       </c>
       <c r="G3" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -585,25 +585,25 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4900000485.0, 4900000487.0, 4900000797.0, 4900001104.0, 4900001105.0, 4900001106.0, 4900001107.0, 4900001108.0, 4900001109.0, 4900001110.0</t>
+          <t>4900001159.0, 4900001164.0, 4900001165.0, 4900001232.0, 4900001233.0, 4900001234.0, 4900001235.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NaN, 20220929 (placeholder quote), 20221123</t>
+          <t>20230103, 20230131</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>5.738799999999999</v>
+        <v>6.120000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>229.552</v>
+        <v>664.4571428571429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SBDPFKBP512G</t>
+          <t>SBDPFKBP020T</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5.642222222222221</v>
+        <v>5.653999999999999</v>
       </c>
       <c r="F4" t="n">
         <v>202241</v>
       </c>
       <c r="G4" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -637,30 +637,30 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4900000483.0, 4900001001.0, 4900001062.0, 4900001057.0, 4900001058.0, 4900001059.0, 4900001060.0, 4900001061.0, 4900001063.0</t>
+          <t>4900000485.0, 4900000487.0, 4900000797.0, 4900001104.0, 4900001105.0, 4900001106.0, 4900001107.0, 4900001108.0, 4900001109.0, 4900001110.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>20220929 (placeholder quote), 20221109, 20221123</t>
+          <t>NaN, 20220929 (placeholder quote), 20221123</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5.270769230769229</v>
+        <v>5.738799999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>304.5333333333332</v>
+        <v>229.552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SBDPFKBP020TES1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -670,17 +670,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>45.39</v>
+        <v>5.997692307692306</v>
       </c>
       <c r="F5" t="n">
         <v>202241</v>
       </c>
       <c r="G5" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -689,30 +689,30 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4900000838.0</t>
+          <t>4900001160.0, 4900001161.0, 4900001163.0, 4900001237.0, 4900001238.0, 4900001265.0, 4900001266.0, 4900001267.0, 4900001349.0, 4900001350.0, 4900001351.0, 4900001352.0, 4900001353.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>20220927.0</t>
+          <t>20230103, 20230131, 20230302</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>45.39</v>
+        <v>6.126690647482014</v>
       </c>
       <c r="L5" t="n">
-        <v>6354.6</v>
+        <v>524.0676923076923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SBFPF2BV025TES1</t>
+          <t>SBDPFKBP512G</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>45.39</v>
+        <v>5.642222222222221</v>
       </c>
       <c r="F6" t="n">
         <v>202241</v>
       </c>
       <c r="G6" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -741,30 +741,30 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>4900001008.0</t>
+          <t>4900000483.0, 4900001001.0, 4900001062.0, 4900001057.0, 4900001058.0, 4900001059.0, 4900001060.0, 4900001061.0, 4900001063.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20220929 (placeholder quote), 20221109, 20221123</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>45.39</v>
+        <v>5.270769230769229</v>
       </c>
       <c r="L6" t="n">
-        <v>1815.6</v>
+        <v>304.5333333333332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SBFPF2BV076TES1</t>
+          <t>SBDPFKBP512GES1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>FAIRVIEW HARBOR PRQ1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -774,17 +774,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>FAIRVIEW</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>45.35</v>
+        <v>5.953846153846154</v>
       </c>
       <c r="F7" t="n">
         <v>202241</v>
       </c>
       <c r="G7" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -793,30 +793,30 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>4900001011.0, 4900001012.0</t>
+          <t>4900001162.0, 4900001166.0, 4900001167.0, 4900001228.0, 4900001229.0, 4900001230.0, 4900001231.0, 4900001440.0, 4900001441.0, 4900001442.0, 4900001443.0, 4900001444.0, 4900001445.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20230103, 20230131, 20230310</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>45.35000000000001</v>
+        <v>6.099230769230768</v>
       </c>
       <c r="L7" t="n">
-        <v>2358.2</v>
+        <v>390.3507692307692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SBFPF2BV153TES1</t>
+          <t>SBFPF2BU038TES1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>45.41</v>
+        <v>45.12</v>
       </c>
       <c r="F8" t="n">
         <v>202241</v>
       </c>
       <c r="G8" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -845,30 +845,30 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4900001007.0</t>
+          <t>4900001117.0, 4900001118.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>45.41</v>
+        <v>45.12</v>
       </c>
       <c r="L8" t="n">
-        <v>7810.52</v>
+        <v>3158.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBFPF2BV307TES1</t>
+          <t>SBFPF2BU076TES1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ2</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -878,17 +878,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ADPRRR VE PRQ2</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120.88</v>
+        <v>44.69</v>
       </c>
       <c r="F9" t="n">
         <v>202241</v>
       </c>
       <c r="G9" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -897,25 +897,25 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>4900001009.0, 4900001010.0</t>
+          <t>4900001119.0, 4900001120.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>20221111.0</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>120.88</v>
+        <v>44.69</v>
       </c>
       <c r="L9" t="n">
-        <v>12692.4</v>
+        <v>3128.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SBFPFABU076TES1</t>
+          <t>SBFPF2BU153TES1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53.78</v>
+        <v>45.23</v>
       </c>
       <c r="F10" t="n">
         <v>202241</v>
       </c>
       <c r="G10" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -949,30 +949,30 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>4900001072.0</t>
+          <t>4900001123.0, 4900001124.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>20221123.0</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>53.78</v>
+        <v>45.23</v>
       </c>
       <c r="L10" t="n">
-        <v>1290.72</v>
+        <v>1990.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SBFPFABU153TES1</t>
+          <t>SBFPF2BU307TES1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR EE PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -982,17 +982,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ADPRRR EE</t>
+          <t>ADPRRR EE PRQ2</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>53.02</v>
+        <v>128.97</v>
       </c>
       <c r="F11" t="n">
         <v>202241</v>
       </c>
       <c r="G11" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1001,25 +1001,25 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4900001073.0</t>
+          <t>4900001247.0, 4900001248.0, 4900001249.0, 4900001250.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20221123.0</t>
+          <t>20221222</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>53.02</v>
+        <v>128.97</v>
       </c>
       <c r="L11" t="n">
-        <v>1060.4</v>
+        <v>6029.3475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SBFPFWBV153TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>121.16</v>
+        <v>45.39</v>
       </c>
       <c r="F12" t="n">
         <v>202241</v>
       </c>
       <c r="G12" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>4900000839.0, 4900000840.0</t>
+          <t>4900000838.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1062,21 +1062,21 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>121.16</v>
+        <v>45.39</v>
       </c>
       <c r="L12" t="n">
-        <v>13085.28</v>
+        <v>6354.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SBFPFWBV307TES1</t>
+          <t>SBFPF2BV025TES1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1086,17 +1086,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ADPRRR VE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>120.72</v>
+        <v>44.81</v>
       </c>
       <c r="F13" t="n">
         <v>202241</v>
       </c>
       <c r="G13" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1105,30 +1105,30 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4900000841.0, 4900000842.0</t>
+          <t>4900001008.0, 4900001339.0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>20220927.0</t>
+          <t>20221111.0, 20230210.0</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>120.72</v>
+        <v>45.12230769230769</v>
       </c>
       <c r="L13" t="n">
-        <v>12554.88</v>
+        <v>1173.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SSDPF2KX012TZES</t>
+          <t>SBFPF2BV076TES1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS R SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1138,17 +1138,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>37.7</v>
+        <v>44.87</v>
       </c>
       <c r="F14" t="n">
         <v>202241</v>
       </c>
       <c r="G14" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1157,30 +1157,30 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>4900000488.0</t>
+          <t>4900001011.0, 4900001012.0, 4900001340.0, 4900001341.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221111.0, 20230210.0</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>37.7</v>
+        <v>44.84381818181818</v>
       </c>
       <c r="L14" t="n">
-        <v>452.4</v>
+        <v>2466.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SSDPF2KX038TZES</t>
+          <t>SBFPF2BV153TES1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS R SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.7</v>
+        <v>45.41</v>
       </c>
       <c r="F15" t="n">
         <v>202241</v>
       </c>
       <c r="G15" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1209,30 +1209,30 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>4900000792.0, 4900000791.0, 4900000793.0, 4900000794.0, 4900000795.0</t>
+          <t>4900001007.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221111.0</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>37.7</v>
+        <v>45.41</v>
       </c>
       <c r="L15" t="n">
-        <v>6273.280000000001</v>
+        <v>7810.52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SSDPF2KX076TZES</t>
+          <t>SBFPF2BV307TES1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ARBORDALE PLUS R SE PRQ1</t>
+          <t>ARBORDALE PLUS RRR VE PRQ2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ADPR SE</t>
+          <t>ADPRRR VE PRQ2</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.7</v>
+        <v>122.78</v>
       </c>
       <c r="F16" t="n">
         <v>202241</v>
       </c>
       <c r="G16" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1261,30 +1261,30 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4900000796.0</t>
+          <t>4900001009.0, 4900001010.0, 4900001342.0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>20221012</t>
+          <t>20221111.0, 20230210.0</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>37.7</v>
+        <v>121.7727710843373</v>
       </c>
       <c r="L16" t="n">
-        <v>6786.000000000001</v>
+        <v>10107.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SSDPFINU512GZ1S</t>
+          <t>SBFPFABU038TES1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1294,17 +1294,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.79</v>
+        <v>52.92</v>
       </c>
       <c r="F17" t="n">
         <v>202241</v>
       </c>
       <c r="G17" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1313,30 +1313,30 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4900001031.0</t>
+          <t>4900001115.0, 4900001116.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>20221222.0</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>5.79</v>
+        <v>52.91999999999999</v>
       </c>
       <c r="L17" t="n">
-        <v>277.92</v>
+        <v>2434.32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SSDPFKNU010TZ1H</t>
+          <t>SBFPFABU076TES1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1346,15 +1346,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>ADPRRR EE</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>53.44666666666667</v>
+      </c>
       <c r="F18" t="n">
         <v>202241</v>
       </c>
       <c r="G18" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1363,26 +1365,30 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>4900001072.0, 4900001121.0, 4900001122.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>20221123.0, 20221222.0</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>53.38344827586207</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2064.16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SSDPFKNU010TZ1S</t>
+          <t>SBFPFABU153TES1</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1392,17 +1398,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
+          <t>ADPRRR EE</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.79</v>
+        <v>53.09333333333333</v>
       </c>
       <c r="F19" t="n">
         <v>202241</v>
       </c>
       <c r="G19" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1411,30 +1417,30 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4900001032.0, 4900001033.0</t>
+          <t>4900001073.0, 4900001113.0, 4900001114.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>20221123.0, 20221222.0</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>5.79</v>
+        <v>53.11103448275863</v>
       </c>
       <c r="L19" t="n">
-        <v>555.84</v>
+        <v>2053.626666666667</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SSDPFKNU512GZ1H</t>
+          <t>SBFPFABU307TES1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECHO HARBOR PRQ1</t>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1444,15 +1450,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>EH PRQ1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>111.6</v>
+      </c>
       <c r="F20" t="n">
         <v>202241</v>
       </c>
       <c r="G20" t="n">
-        <v>202253</v>
+        <v>202313</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1461,67 +1469,1047 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>4900001243.0, 4900001244.0, 4900001245.0, 4900001246.0</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>111.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4910.4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>SBFPFUBU038TES1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="F21" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G21" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4900001251.0, 4900001252.0, 4900001253.0, 4900001258.0</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1332.76</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SBFPFUBU076TES1</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="F22" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G22" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>4900001261.0, 4900001262.0, 4900001263.0, 4900001264.0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>52.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1159.4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SBFPFUBU153TES1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ADPRRR EE PRQ2</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="F23" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G23" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>4900001254.0, 4900001255.0, 4900001256.0, 4900001257.0</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>50.87</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1220.88</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SBFPFWBV153TES1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>121.2325</v>
+      </c>
+      <c r="F24" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G24" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>4900000839.0, 4900000840.0, 4900001307.0, 4900001308.0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20220927.0, 20221102.0, 20230208.0</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>121.2088764044944</v>
+      </c>
+      <c r="L24" t="n">
+        <v>10787.59</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SBFPFWBV153TESF</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>121.45</v>
+      </c>
+      <c r="F25" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G25" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>4900001310.0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>20230208.0</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>121.45</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9716</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SBFPFWBV307TES1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>120.84</v>
+      </c>
+      <c r="F26" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G26" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>4900000841.0, 4900000842.0, 4900001306.0, 4900001309.0, 4900001348.0</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>20220927.0, 20221102.0, 20230208.0, 20230224.0</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>120.78</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8696.16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SBFPFWBV307TESF</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS RRR VE PRQ1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ADPRRR VE</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>121.02</v>
+      </c>
+      <c r="F27" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G27" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>4900001311.0</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>20230208.0</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>121.02</v>
+      </c>
+      <c r="L27" t="n">
+        <v>9681.6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SSDPF2KX012TZES</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R HE PRQ1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ADPR HE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G28" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4900001186.0</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>20221012.0</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2714.4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SSDPF2KX012TZES</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ADPR SE</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G29" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4900000488.0, NaN</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>20221012, NaN</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>452.4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SSDPF2KX038TZES</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ADPR SE</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G30" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4900000792.0, 4900000791.0, 4900000793.0, 4900000794.0, 4900000795.0, NaN</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>20221012, NaN</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6273.280000000001</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SSDPF2KX076TZES</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R SE PRQ1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ADPR SE</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G31" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4900000796.0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>20221012</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L31" t="n">
+        <v>6786.000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SSDPF2SQ120GZES</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R HE PRQ1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ADPR HE</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G32" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>4900001168.0</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>20221012.0</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SSDPF2SQ800GZES</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ARBORDALE PLUS R HE PRQ1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ADPR HE</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>38.04</v>
+      </c>
+      <c r="F33" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G33" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4900001169.0, 4900001170.0, 4900001288.0</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>20221012.0, 20230206.0</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>38.01166666666667</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3649.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SSDPFINU010TZ1S</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>EH PRQ1</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5.390000000000001</v>
+      </c>
+      <c r="F34" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G34" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>NaN, 4900001259.0, 4900001421.0, 4900001422.0, 4900001423.0</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>20221222.0, 20230203.0, 20230310.0</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>5.390000000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>862.4000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SSDPFINU512GZ1S</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EH PRQ1</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>5.438888888888889</v>
+      </c>
+      <c r="F35" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G35" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>4900001031.0, NaN, 4900001260.0, 4900001427.0, 4900001428.0, 4900001429.0, 4900001430.0</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>NaN, 20221214.0, 20221222.0, 20230203.0, 20230310.0</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>5.408717948717949</v>
+      </c>
+      <c r="L35" t="n">
+        <v>750.0088888888889</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SSDPFKNU010TZ1H</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>EH PRQ1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G36" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SSDPFKNU010TZ1S</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>EH PRQ1</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5.795</v>
+      </c>
+      <c r="F37" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G37" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>4900001032.0, 4900001033.0, NaN, 4900001424.0, 4900001425.0, 4900001426.0, 4900001435.0</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>NaN, 20221214.0, 20230310.0, 20230316.0</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>5.784383561643835</v>
+      </c>
+      <c r="L37" t="n">
+        <v>844.52</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SSDPFKNU512GZ1H</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ECHO HARBOR PRQ1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>EH PRQ1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G38" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>NaN</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>SSDPFKNU512GZ1S</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>ECHO HARBOR PRQ1</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>PEGATRON</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>EH PRQ1</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="F21" t="n">
-        <v>202241</v>
-      </c>
-      <c r="G21" t="n">
-        <v>202253</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ACTIVE, WIP, DONE</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>4900001034.0, 4900001035.0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>NaN</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="L21" t="n">
-        <v>648.48</v>
+      <c r="E39" t="n">
+        <v>5.792</v>
+      </c>
+      <c r="F39" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G39" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>4900001034.0, 4900001035.0, NaN, 4900001227.0, 4900001338.0, 4900001431.0, 4900001432.0, 4900001433.0, 4900001434.0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NaN, 20221214.0, 20230130.0, 20230217.0, 20230310.0</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>5.783888888888888</v>
+      </c>
+      <c r="L39" t="n">
+        <v>749.5919999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>TBD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NPSG PATHFINDING</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PEGATRON</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>PF</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>229.24</v>
+      </c>
+      <c r="F40" t="n">
+        <v>202241</v>
+      </c>
+      <c r="G40" t="n">
+        <v>202313</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>ACTIVE, WIP, DONE</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>4900001336.0, 4900001337.0</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>20230210.0</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>229.24</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4584.8</v>
       </c>
     </row>
   </sheetData>
